--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H2">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I2">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J2">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>837.4384393348805</v>
+        <v>977.7890950833995</v>
       </c>
       <c r="R2">
-        <v>3349.753757339522</v>
+        <v>3911.156380333598</v>
       </c>
       <c r="S2">
-        <v>0.004978363062984796</v>
+        <v>0.003670384044663592</v>
       </c>
       <c r="T2">
-        <v>0.002654343366197152</v>
+        <v>0.001994343771417606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H3">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I3">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J3">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>604.3229006460879</v>
+        <v>576.1505768725519</v>
       </c>
       <c r="R3">
-        <v>3625.937403876528</v>
+        <v>3456.903461235312</v>
       </c>
       <c r="S3">
-        <v>0.003592549213625528</v>
+        <v>0.002162730076772198</v>
       </c>
       <c r="T3">
-        <v>0.002873191163122942</v>
+        <v>0.001762714966083399</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H4">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I4">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J4">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>430.134185169897</v>
+        <v>376.5165817249724</v>
       </c>
       <c r="R4">
-        <v>2580.805111019382</v>
+        <v>2259.099490349834</v>
       </c>
       <c r="S4">
-        <v>0.002557040659941064</v>
+        <v>0.001413352287383345</v>
       </c>
       <c r="T4">
-        <v>0.002045028805736084</v>
+        <v>0.001151940899179182</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H5">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I5">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J5">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>711.9121511553545</v>
+        <v>834.6007423224735</v>
       </c>
       <c r="R5">
-        <v>2847.648604621418</v>
+        <v>3338.402969289894</v>
       </c>
       <c r="S5">
-        <v>0.004232140526313486</v>
+        <v>0.00313288956042562</v>
       </c>
       <c r="T5">
-        <v>0.002256475469689671</v>
+        <v>0.001702290197795021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H6">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I6">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J6">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>619.430198704564</v>
+        <v>290.3558498725243</v>
       </c>
       <c r="R6">
-        <v>3716.581192227384</v>
+        <v>1742.135099235146</v>
       </c>
       <c r="S6">
-        <v>0.003682358340008063</v>
+        <v>0.001089925715070438</v>
       </c>
       <c r="T6">
-        <v>0.002945017260121536</v>
+        <v>0.0008883347906000269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H7">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I7">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J7">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>405.2199767104017</v>
+        <v>418.4771608654926</v>
       </c>
       <c r="R7">
-        <v>2431.319860262411</v>
+        <v>2510.862965192955</v>
       </c>
       <c r="S7">
-        <v>0.002408931892403758</v>
+        <v>0.001570862164468928</v>
       </c>
       <c r="T7">
-        <v>0.001926576760471053</v>
+        <v>0.00128031800024539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H8">
         <v>380.699402</v>
       </c>
       <c r="I8">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J8">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>20884.82282071408</v>
+        <v>25577.38519616941</v>
       </c>
       <c r="R8">
-        <v>125308.9369242845</v>
+        <v>153464.3111770164</v>
       </c>
       <c r="S8">
-        <v>0.1241550729271549</v>
+        <v>0.09601132493733494</v>
       </c>
       <c r="T8">
-        <v>0.09929474509026696</v>
+        <v>0.07825322318221162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H9">
         <v>380.699402</v>
       </c>
       <c r="I9">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J9">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>15071.16954951061</v>
+        <v>15071.16954951062</v>
       </c>
       <c r="R9">
-        <v>135640.5259455955</v>
+        <v>135640.5259455956</v>
       </c>
       <c r="S9">
-        <v>0.0895943513900028</v>
+        <v>0.05657352953422471</v>
       </c>
       <c r="T9">
-        <v>0.107481491570036</v>
+        <v>0.06916466941378947</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H10">
         <v>380.699402</v>
       </c>
       <c r="I10">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J10">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>10727.08849326324</v>
+        <v>9849.066319054426</v>
       </c>
       <c r="R10">
-        <v>96543.79643936912</v>
+        <v>88641.59687148983</v>
       </c>
       <c r="S10">
-        <v>0.06376987085838273</v>
+        <v>0.03697101558409953</v>
       </c>
       <c r="T10">
-        <v>0.07650126074635934</v>
+        <v>0.04519937313119853</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H11">
         <v>380.699402</v>
       </c>
       <c r="I11">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J11">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>17754.33087666928</v>
+        <v>21831.80890309486</v>
       </c>
       <c r="R11">
-        <v>106525.9852600156</v>
+        <v>130990.8534185692</v>
       </c>
       <c r="S11">
-        <v>0.1055450775756375</v>
+        <v>0.08195133640473791</v>
       </c>
       <c r="T11">
-        <v>0.08441114266474087</v>
+        <v>0.06679374773701013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H12">
         <v>380.699402</v>
       </c>
       <c r="I12">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J12">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>15447.92947409872</v>
+        <v>7595.240582548377</v>
       </c>
       <c r="R12">
-        <v>139031.3652668885</v>
+        <v>68357.1652429354</v>
       </c>
       <c r="S12">
-        <v>0.09183409535694091</v>
+        <v>0.02851069825767406</v>
       </c>
       <c r="T12">
-        <v>0.1101683911185756</v>
+        <v>0.03485610737006234</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H13">
         <v>380.699402</v>
       </c>
       <c r="I13">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J13">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>10105.75466745013</v>
+        <v>10946.68737161883</v>
       </c>
       <c r="R13">
-        <v>90951.79200705122</v>
+        <v>98520.18634456948</v>
       </c>
       <c r="S13">
-        <v>0.06007619592907365</v>
+        <v>0.04109121984765356</v>
       </c>
       <c r="T13">
-        <v>0.07207015895681854</v>
+        <v>0.05023657989825382</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H14">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I14">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J14">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>12977.37069557341</v>
+        <v>44712.66616247589</v>
       </c>
       <c r="R14">
-        <v>77864.2241734405</v>
+        <v>268275.9969748553</v>
       </c>
       <c r="S14">
-        <v>0.07714723840096967</v>
+        <v>0.1678405469055915</v>
       </c>
       <c r="T14">
-        <v>0.06169957610944216</v>
+        <v>0.1367970266486803</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H15">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I15">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J15">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>9364.894102230654</v>
+        <v>26346.40591979913</v>
       </c>
       <c r="R15">
-        <v>84284.04692007588</v>
+        <v>237117.6532781922</v>
       </c>
       <c r="S15">
-        <v>0.05567196428711554</v>
+        <v>0.09889804295067649</v>
       </c>
       <c r="T15">
-        <v>0.06678664075780821</v>
+        <v>0.120909027643683</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H16">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I16">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J16">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>6665.577441395663</v>
+        <v>17217.47594441041</v>
       </c>
       <c r="R16">
-        <v>59990.19697256097</v>
+        <v>154957.2834996937</v>
       </c>
       <c r="S16">
-        <v>0.03962519866423179</v>
+        <v>0.06463024522722156</v>
       </c>
       <c r="T16">
-        <v>0.04753620501867777</v>
+        <v>0.07901450699781207</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H17">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I17">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J17">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>11032.1516833689</v>
+        <v>38164.90136580668</v>
       </c>
       <c r="R17">
-        <v>66192.91010021343</v>
+        <v>228989.4081948401</v>
       </c>
       <c r="S17">
-        <v>0.06558339558588937</v>
+        <v>0.1432618196946332</v>
       </c>
       <c r="T17">
-        <v>0.05245123210290279</v>
+        <v>0.1167643416791815</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H18">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I18">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J18">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>9599.004453397567</v>
+        <v>13277.48923459287</v>
       </c>
       <c r="R18">
-        <v>86391.04008057811</v>
+        <v>119497.4031113359</v>
       </c>
       <c r="S18">
-        <v>0.05706369204902413</v>
+        <v>0.04984048695663313</v>
       </c>
       <c r="T18">
-        <v>0.0684562211876974</v>
+        <v>0.0609331047958109</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H19">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I19">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J19">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>6279.494233867654</v>
+        <v>19136.26331535589</v>
       </c>
       <c r="R19">
-        <v>56515.44810480889</v>
+        <v>172226.369838203</v>
       </c>
       <c r="S19">
-        <v>0.03733003010100858</v>
+        <v>0.07183290946926814</v>
       </c>
       <c r="T19">
-        <v>0.04478281558337666</v>
+        <v>0.08782021339974867</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H20">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I20">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J20">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>2346.965933240091</v>
+        <v>1238.751696293103</v>
       </c>
       <c r="R20">
-        <v>9387.863732960363</v>
+        <v>4955.006785172411</v>
       </c>
       <c r="S20">
-        <v>0.01395212825602553</v>
+        <v>0.004649974605194752</v>
       </c>
       <c r="T20">
-        <v>0.007438938987007004</v>
+        <v>0.002526615138435784</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H21">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I21">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J21">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>1693.647191093452</v>
+        <v>729.919681053764</v>
       </c>
       <c r="R21">
-        <v>10161.88314656071</v>
+        <v>4379.518086322583</v>
       </c>
       <c r="S21">
-        <v>0.01006831096093967</v>
+        <v>0.00273994214570082</v>
       </c>
       <c r="T21">
-        <v>0.008052271621173418</v>
+        <v>0.002233166809996797</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H22">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I22">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J22">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>1205.474016833425</v>
+        <v>477.0052730589188</v>
       </c>
       <c r="R22">
-        <v>7232.844101000553</v>
+        <v>2862.031638353513</v>
       </c>
       <c r="S22">
-        <v>0.007166242958178327</v>
+        <v>0.00179056255818288</v>
       </c>
       <c r="T22">
-        <v>0.005731302402800206</v>
+        <v>0.00145938295902748</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H23">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I23">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J23">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>1995.171809343162</v>
+        <v>1057.347735291796</v>
       </c>
       <c r="R23">
-        <v>7980.687237372646</v>
+        <v>4229.390941167183</v>
       </c>
       <c r="S23">
-        <v>0.01186079975959951</v>
+        <v>0.003969027959904968</v>
       </c>
       <c r="T23">
-        <v>0.006323892966699421</v>
+        <v>0.002156615246278487</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H24">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I24">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J24">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>1735.986200411806</v>
+        <v>367.8490621001828</v>
       </c>
       <c r="R24">
-        <v>10415.91720247084</v>
+        <v>2207.094372601097</v>
       </c>
       <c r="S24">
-        <v>0.0103200058321248</v>
+        <v>0.001380816512646644</v>
       </c>
       <c r="T24">
-        <v>0.008253568092478443</v>
+        <v>0.001125422889522103</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H25">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I25">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J25">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>1135.650617570169</v>
+        <v>530.1647313195236</v>
       </c>
       <c r="R25">
-        <v>6813.903705421016</v>
+        <v>3180.988387917142</v>
       </c>
       <c r="S25">
-        <v>0.00675116023030604</v>
+        <v>0.001990110322014346</v>
       </c>
       <c r="T25">
-        <v>0.005399334222332592</v>
+        <v>0.001622022686255562</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H26">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I26">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J26">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>414.8342909086525</v>
+        <v>1630.584315178452</v>
       </c>
       <c r="R26">
-        <v>2489.005745451915</v>
+        <v>9783.505891070714</v>
       </c>
       <c r="S26">
-        <v>0.002466086597074965</v>
+        <v>0.006120819595967399</v>
       </c>
       <c r="T26">
-        <v>0.001972287029872343</v>
+        <v>0.004988722551364747</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H27">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I27">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J27">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>299.3579589784399</v>
+        <v>960.8023842291573</v>
       </c>
       <c r="R27">
-        <v>2694.221630805959</v>
+        <v>8647.221458062417</v>
       </c>
       <c r="S27">
-        <v>0.001779608548626494</v>
+        <v>0.00360662003583569</v>
       </c>
       <c r="T27">
-        <v>0.00213490000485126</v>
+        <v>0.004409318006733474</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H28">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I28">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J28">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>213.071673473985</v>
+        <v>627.8879930778736</v>
       </c>
       <c r="R28">
-        <v>1917.645061265865</v>
+        <v>5650.991937700863</v>
       </c>
       <c r="S28">
-        <v>0.001266658060064359</v>
+        <v>0.002356939838270853</v>
       </c>
       <c r="T28">
-        <v>0.001519541081471757</v>
+        <v>0.002881505999083463</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H29">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I29">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J29">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>352.6534710400225</v>
+        <v>1391.800017723907</v>
       </c>
       <c r="R29">
-        <v>2115.920826240135</v>
+        <v>8350.800106343442</v>
       </c>
       <c r="S29">
-        <v>0.002096437101279238</v>
+        <v>0.005224481029807981</v>
       </c>
       <c r="T29">
-        <v>0.001676654708192522</v>
+        <v>0.004258169338915312</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H30">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I30">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J30">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>306.8415243168199</v>
+        <v>484.2043105236975</v>
       </c>
       <c r="R30">
-        <v>2761.573718851379</v>
+        <v>4357.838794713278</v>
       </c>
       <c r="S30">
-        <v>0.001824096481721151</v>
+        <v>0.001817586005652813</v>
       </c>
       <c r="T30">
-        <v>0.002188269769035024</v>
+        <v>0.002222112289035382</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H31">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I31">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J31">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>200.7301477995083</v>
+        <v>697.8624513187898</v>
       </c>
       <c r="R31">
-        <v>1806.571330195575</v>
+        <v>6280.762061869107</v>
       </c>
       <c r="S31">
-        <v>0.001193290762036469</v>
+        <v>0.002619607049792097</v>
       </c>
       <c r="T31">
-        <v>0.001431526307078504</v>
+        <v>0.003202633052676933</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H32">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I32">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J32">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>1577.468584438016</v>
+        <v>845.8226812830851</v>
       </c>
       <c r="R32">
-        <v>9464.811506628097</v>
+        <v>5074.93608769851</v>
       </c>
       <c r="S32">
-        <v>0.00937765806406307</v>
+        <v>0.003175014008241951</v>
       </c>
       <c r="T32">
-        <v>0.007499912368149149</v>
+        <v>0.002587768473727119</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H33">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I33">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J33">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>1138.352798066925</v>
+        <v>498.39093952216</v>
       </c>
       <c r="R33">
-        <v>10245.17518260233</v>
+        <v>4485.51845569944</v>
       </c>
       <c r="S33">
-        <v>0.006767224020720595</v>
+        <v>0.001870839183649319</v>
       </c>
       <c r="T33">
-        <v>0.008118272192958645</v>
+        <v>0.002287217621541353</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H34">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I34">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J34">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>810.236469127523</v>
+        <v>325.7003645300367</v>
       </c>
       <c r="R34">
-        <v>7292.128222147708</v>
+        <v>2931.30328077033</v>
       </c>
       <c r="S34">
-        <v>0.004816654121336169</v>
+        <v>0.001222600484422664</v>
       </c>
       <c r="T34">
-        <v>0.005778279113653353</v>
+        <v>0.001494705368861184</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H35">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I35">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J35">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>1341.016844437182</v>
+        <v>721.9596140125051</v>
       </c>
       <c r="R35">
-        <v>8046.101066623094</v>
+        <v>4331.75768407503</v>
       </c>
       <c r="S35">
-        <v>0.007972011328365624</v>
+        <v>0.002710061977053411</v>
       </c>
       <c r="T35">
-        <v>0.006375726855488423</v>
+        <v>0.002208813229755987</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H36">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I36">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J36">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>1166.810159185809</v>
+        <v>251.1682373021967</v>
       </c>
       <c r="R36">
-        <v>10501.29143267228</v>
+        <v>2260.51413571977</v>
       </c>
       <c r="S36">
-        <v>0.006936395948840819</v>
+        <v>0.0009428248845847789</v>
       </c>
       <c r="T36">
-        <v>0.008321218593976616</v>
+        <v>0.00115266224317772</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.584972333333335</v>
+        <v>4.196470000000001</v>
       </c>
       <c r="H37">
-        <v>28.754917</v>
+        <v>12.58941</v>
       </c>
       <c r="I37">
-        <v>0.04040760763131528</v>
+        <v>0.011280192722496</v>
       </c>
       <c r="J37">
-        <v>0.0415369990749667</v>
+        <v>0.01139244850991142</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>763.3059972205874</v>
+        <v>361.9977723609134</v>
       </c>
       <c r="R37">
-        <v>6869.753974985287</v>
+        <v>3257.97995124822</v>
       </c>
       <c r="S37">
-        <v>0.004537664147988999</v>
+        <v>0.001358852184543878</v>
       </c>
       <c r="T37">
-        <v>0.005443589950740517</v>
+        <v>0.001661281572848059</v>
       </c>
     </row>
   </sheetData>
